--- a/data/hotels_by_city/Houston/Houston_shard_28.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_28.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="610">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55639-d651187-Reviews-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Best-Western-Cleveland-Inn-Suites.h1668417.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1710 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r582905904-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>55639</t>
+  </si>
+  <si>
+    <t>651187</t>
+  </si>
+  <si>
+    <t>582905904</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Awesome spot near the Highway</t>
+  </si>
+  <si>
+    <t>This place was awesome. Great location. Great pricing. The property seemed to have underwent renovations recently, we asked the front desk and they showed us pictures of the flooding during Hurricane Harvey.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r580627698-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>580627698</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful hotel, and great employees. Everything was perfect, couldn't have asked for a better stay. Breakfast was wonderful, housekeeping was amazing, and they actually have pretty fast internet. Price was perfect.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r576620701-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>576620701</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>convenient, clean,</t>
+  </si>
+  <si>
+    <t>the hotel is still going through renovations. There are still a few things that need to be done.  Our room smelled smoky, but we were given another room with no problems.   Our room was very clean.  the breakfast room is very large and looked out over some trees which was nice.  breakfast was normal hotel fare.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r549419855-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>549419855</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Great value; good location</t>
+  </si>
+  <si>
+    <t>I checked the prices of a few nearby hotels before I selected Best Western.  The rate was significantly lower than the Holiday Inn Express.  The hotel was very clean in spite of some remodeling that was going on.  The room was very good.  The front desk person was very friendly and took time out to speak with me about the remodeling work.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r543356108-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>543356108</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Not The best</t>
+  </si>
+  <si>
+    <t>We we're informed that Renovations were going on in the first floor.   we got to the third floor the walls are not done the room was okay there was a lot of noise all night long.also no vending machines. I understand they were flooded due to Hurricane Harvey but they should shut down and do the renovations. There was no price break .</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r534223982-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>534223982</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>ask questions!!</t>
+  </si>
+  <si>
+    <t>this hotel was apparently heavily damaged by floodwaters and does not offer any services other than rooms at this time.  the first floor is barely functional; no breakfast and no coffee other than the in room swill.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r500596107-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>500596107</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, affordable, and CLEAN</t>
+  </si>
+  <si>
+    <t>This hotel was awesome!  It was convenient, clean, comfortable, and close to places to eat.  The beds were amazing and again,  it was CLEAN and bug free.  This is something that I"m very concerned with when staying in hotels. Kudos to the cleaning staff.  Parking was convenient and easily accessible.  Our room was exceptionally clean.  We look forward to staying here again.  P.S.  The price was very reasonable!!!!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r499129558-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>499129558</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Toooooo hot</t>
+  </si>
+  <si>
+    <t>So I'm just going to write about my personal experience.  We are Best Western rewards members so we stay at lots of Best Western properties. They are each privately owned so no 2 are exactly the same. And I always book online. My first impression was that the woman at the desk was not very friendly - not ugly just not real friendly. We got there by 4:30 in the afternoon but still got a room farthest away from everything. Top floor end of the hall. Now I understand that sometimes that happens - the hotel is full and it is what it is.  However - the parking lot never got full so where were all the people?  My husband and I are aging and all the walking was a bit hard for us but not impossible - just uncomfortable. My suspicion is that we were given that room because we got a low rate.   Who knows - that's just my suspicion.  The heat index was around 109. When we got into the room it was sweltering.  It took until late in the night to cool off so pretty uncomfortable. Seems like if they knew the hotel was going to be so full they would have set the AC units to cool at at least 78.  But they didn't.  So that's my personal experience with this property. Not the worst Best Western property we've stayed at but also not in...So I'm just going to write about my personal experience.  We are Best Western rewards members so we stay at lots of Best Western properties. They are each privately owned so no 2 are exactly the same. And I always book online. My first impression was that the woman at the desk was not very friendly - not ugly just not real friendly. We got there by 4:30 in the afternoon but still got a room farthest away from everything. Top floor end of the hall. Now I understand that sometimes that happens - the hotel is full and it is what it is.  However - the parking lot never got full so where were all the people?  My husband and I are aging and all the walking was a bit hard for us but not impossible - just uncomfortable. My suspicion is that we were given that room because we got a low rate.   Who knows - that's just my suspicion.  The heat index was around 109. When we got into the room it was sweltering.  It took until late in the night to cool off so pretty uncomfortable. Seems like if they knew the hotel was going to be so full they would have set the AC units to cool at at least 78.  But they didn't.  So that's my personal experience with this property. Not the worst Best Western property we've stayed at but also not in the top 50%. MoreShow less</t>
+  </si>
+  <si>
+    <t>So I'm just going to write about my personal experience.  We are Best Western rewards members so we stay at lots of Best Western properties. They are each privately owned so no 2 are exactly the same. And I always book online. My first impression was that the woman at the desk was not very friendly - not ugly just not real friendly. We got there by 4:30 in the afternoon but still got a room farthest away from everything. Top floor end of the hall. Now I understand that sometimes that happens - the hotel is full and it is what it is.  However - the parking lot never got full so where were all the people?  My husband and I are aging and all the walking was a bit hard for us but not impossible - just uncomfortable. My suspicion is that we were given that room because we got a low rate.   Who knows - that's just my suspicion.  The heat index was around 109. When we got into the room it was sweltering.  It took until late in the night to cool off so pretty uncomfortable. Seems like if they knew the hotel was going to be so full they would have set the AC units to cool at at least 78.  But they didn't.  So that's my personal experience with this property. Not the worst Best Western property we've stayed at but also not in...So I'm just going to write about my personal experience.  We are Best Western rewards members so we stay at lots of Best Western properties. They are each privately owned so no 2 are exactly the same. And I always book online. My first impression was that the woman at the desk was not very friendly - not ugly just not real friendly. We got there by 4:30 in the afternoon but still got a room farthest away from everything. Top floor end of the hall. Now I understand that sometimes that happens - the hotel is full and it is what it is.  However - the parking lot never got full so where were all the people?  My husband and I are aging and all the walking was a bit hard for us but not impossible - just uncomfortable. My suspicion is that we were given that room because we got a low rate.   Who knows - that's just my suspicion.  The heat index was around 109. When we got into the room it was sweltering.  It took until late in the night to cool off so pretty uncomfortable. Seems like if they knew the hotel was going to be so full they would have set the AC units to cool at at least 78.  But they didn't.  So that's my personal experience with this property. Not the worst Best Western property we've stayed at but also not in the top 50%. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r497589951-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>497589951</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Great Place for the Money</t>
+  </si>
+  <si>
+    <t>Great place for the money.  Professional Staff.  The breakfast was tasty, not a large selection but large enough to fill us up.  Everyone was helpful.  The room was neat and clean with no disturbance at all.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r491928826-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>491928826</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Overall was good except for the internet connection was not good at all and a plugin that did not work by the tv and needing more lighting in the rooms. The breakfast was good too except not having the utensils out where you can see and find them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r488915545-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>488915545</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great value in Cleveland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed at the Best Western while in town for a funeral. The rooms were clean and comfortable, the staff was very friendly and helpful, and the price was great. The free breakfast included egg discs, sausage, waffles, fruit and oatmeal (instant).  I would recommend this hotel and would stay here again if the need arose. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r483487845-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>483487845</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, but the walls are thin</t>
+  </si>
+  <si>
+    <t>We stayed in the Best Western for 2 nights.  We live in Cleveland, but we had our bathroom remodeled while we were on a cruise, and it was not finished when we came home, so we stayed at the Best Western. Everyone who worked at the desk was friendly and helpful, we could not have asked for better service at this hotel.  I went for coffee, after the breakfast buffet was closed, so the coffee was gone, but they had coffee, fruit and granola bars at the front desk. Their buffet had scrambled egg discs, bacon or sausage, muffins, pastries, bread, peanut butter tubs, Belgian waffles (you make yourself), butter, syrup, salsa, hot sauce, half 'n half, oatmeal, fruit juice, coffee. We were more than pleased with this hotel, but the walls are thin, you hear everything; keys in doors, doors opening &amp; closing, people talking, etc. Located next door to the hotel, is Popeye's fried chicken and an Exxon station that has beverages, snacks and they have a pretty good hot snack area; sausage on a stick, sandwiches, etc.  Across the street from the Exxon station, there is a Burger King. On the other side of the freeway, they have Whataburger, McDonald's, Taco Bell and Walmart.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in the Best Western for 2 nights.  We live in Cleveland, but we had our bathroom remodeled while we were on a cruise, and it was not finished when we came home, so we stayed at the Best Western. Everyone who worked at the desk was friendly and helpful, we could not have asked for better service at this hotel.  I went for coffee, after the breakfast buffet was closed, so the coffee was gone, but they had coffee, fruit and granola bars at the front desk. Their buffet had scrambled egg discs, bacon or sausage, muffins, pastries, bread, peanut butter tubs, Belgian waffles (you make yourself), butter, syrup, salsa, hot sauce, half 'n half, oatmeal, fruit juice, coffee. We were more than pleased with this hotel, but the walls are thin, you hear everything; keys in doors, doors opening &amp; closing, people talking, etc. Located next door to the hotel, is Popeye's fried chicken and an Exxon station that has beverages, snacks and they have a pretty good hot snack area; sausage on a stick, sandwiches, etc.  Across the street from the Exxon station, there is a Burger King. On the other side of the freeway, they have Whataburger, McDonald's, Taco Bell and Walmart.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r474865779-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>474865779</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Quick overnight stay</t>
+  </si>
+  <si>
+    <t>Check in was smooth, stayed in #310, after a terrible tire blow out and extremely tired took a shower found tub drained slow and the sheets where not fresh yes thats right not fresh..you can tell...accidentally fell asleep on the top cover ..and left as soon as i work up...MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>BWClevelandTx, Front Desk  at Best Western Cleveland Inn &amp; Suites, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Check in was smooth, stayed in #310, after a terrible tire blow out and extremely tired took a shower found tub drained slow and the sheets where not fresh yes thats right not fresh..you can tell...accidentally fell asleep on the top cover ..and left as soon as i work up...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r474831407-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>474831407</t>
+  </si>
+  <si>
+    <t>Airport pickup</t>
+  </si>
+  <si>
+    <t>Hotel was nice and close to Houston Airport. Room was clean and pleasant.  Breakfast was good for a hotel breakfast.  Price was great. Stayed here before heading to pick up our daughters from airport.  Easy to make reservation on lineMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>BWClevelandTx, Front Desk at Best Western Cleveland Inn &amp; Suites, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was nice and close to Houston Airport. Room was clean and pleasant.  Breakfast was good for a hotel breakfast.  Price was great. Stayed here before heading to pick up our daughters from airport.  Easy to make reservation on lineMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r472485338-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>472485338</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Nice place, good breakfast</t>
+  </si>
+  <si>
+    <t>We have been on the road and in hotels for over 40+ nights. When we can snag a BW for a decent price we do. They have consistent quality of room, service and breakfast. This was true in Cleveland too. The room was large, clean and comfortable. The pool is small but functional. The breakfast was good and what we have come to expect from BW.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r460281337-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>460281337</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Pleasant accomodations</t>
+  </si>
+  <si>
+    <t>Located by a busy interchange - many options of restaurants and stores/  A little tricky finding where to turn especially at night.  Clean and welcoming hotel.  Pool even looked tempting - except it was mid-February.  Room was very clean and pleasant. Quiet.  Breakfast was adequate - most things were tasty.  A nice highway stop.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r459798761-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>459798761</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>great rooms but too hot and aircon too loud</t>
+  </si>
+  <si>
+    <t>fantastic sized room, great breakfast (bacon and eggs)very very compfy beds (4 pillows)good shower (pressure)just the room was a bit smelly (like dust) and the aircon was far too loud (but without you sweat too much)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r454604361-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>454604361</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Great Rooms</t>
+  </si>
+  <si>
+    <t>Friendly staff and great room. Very quiet and good location, close to the highway and plenty of quick places to eat around this location. I checked in with no problems and was told about breakfast and check out. I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r437689043-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>437689043</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Road trip through Americas Heartland</t>
+  </si>
+  <si>
+    <t>For just passing through on way to Waco, TX this as a great choice for a stop. Town was great to visit along with hotel being great. After getting dinner we just sat around pool enjoying the night sky and talking about our future stops/</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r428385232-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>428385232</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average but clean. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A standard BW. The staff was friendly and professional but seemed to be there because it was their job. Nothing bad but it did not feel homey. The room was clean and breakfast smelled GREAT. Overall, it's a good spot for the night and restful. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r422762789-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>422762789</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Love the Small town Environment</t>
+  </si>
+  <si>
+    <t>Room was comfortable, and clean.  Housekeeping is amazing. I really enjoyed the pool since I was the only one out there. Close to a few resturants and walmart. I really felt safe and secure. I will be staying here again for sure.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r387674216-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>387674216</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Stayed at Hotel for Business purposes and the service I received was excellent. The staff was very friendly and helpful. The Hotel is in a good location with eating places nearby. The facilities were good and would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r376003839-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>376003839</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Big clean rooms, good shower and different breakfast options daily</t>
+  </si>
+  <si>
+    <t>It's a good hotel with big clean rooms that had no smell when we where there. The check in swift and friendly, the mattrass good and the bathroom had plenty of towels, curved shower rod and great waterpressure. (good to wash long hair) We could hear the train and a bit of stumbling of people above us but all in all we surely would recommend this hotel if you are in the area.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r369920415-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>369920415</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Won't make this mistake again!</t>
+  </si>
+  <si>
+    <t>Walked through the door to check in and was slapped in the face with strong, horrible moth ball fumes.  Had it not been so late at night, I would have cancelled right there due to the smell.  But, we were exhausted and thought if we just went up to our room, we could rest and get on with our weekend.  Unfortunately, things did not improve.  We had a room with two queen beds; one had blood/coffee stains down the side of the mattress and the other had long black hairs on top of the blanket.  Ok.......sleep on the other side of the bed, and take that blanket off!  The room was very outdated and the refrigerator/freezer never got cold.  I had to hurry and ice down our food in the morning to keep from everything spoiling.  The noise from inside the walls when you flushed the toilet was like something from a horror movie.  DO NOT BOOK THIS HOTEL! Their website it very misleading.   It's worth spending an extra $20 to stay somewhere else in town.  We cancelled our second night and changed hotels as quick as we could.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Walked through the door to check in and was slapped in the face with strong, horrible moth ball fumes.  Had it not been so late at night, I would have cancelled right there due to the smell.  But, we were exhausted and thought if we just went up to our room, we could rest and get on with our weekend.  Unfortunately, things did not improve.  We had a room with two queen beds; one had blood/coffee stains down the side of the mattress and the other had long black hairs on top of the blanket.  Ok.......sleep on the other side of the bed, and take that blanket off!  The room was very outdated and the refrigerator/freezer never got cold.  I had to hurry and ice down our food in the morning to keep from everything spoiling.  The noise from inside the walls when you flushed the toilet was like something from a horror movie.  DO NOT BOOK THIS HOTEL! Their website it very misleading.   It's worth spending an extra $20 to stay somewhere else in town.  We cancelled our second night and changed hotels as quick as we could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r342929643-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>342929643</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Staff extremely helpful.</t>
+  </si>
+  <si>
+    <t>Great stay. I would recommend to all my friends and family. Will be staying her again. Jody was wonderful and the best. We were staying for a funeral and she helped us with directions and really cared about our situation. Thanks again.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r342228942-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>342228942</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>I probably won't DO IT AGAIN here!</t>
+  </si>
+  <si>
+    <t>Unfriendly, cold, unsecure hotel. Checked in fine. Elevators slow. No vending/ice on 2nd floor. Room clean and comfortable. TV channels good selection. Wifi good. Coffeemaker, Fridge, Microwave. Outdoor pool. I left 2 bottles of water and a bottle of shampoo in the room. I returned a couple of hours later to recover those items and the housekeepers had just finished my room 2 rooms before I got there. Those items were gone and no one knew what happened to them. The items were insignificant but as far as I'm concerned it was a good lesson for me as a traveler. There is a La Quinta just down the road that I will be staying at next time. Cie la Vie Best Western.MoreShow less</t>
+  </si>
+  <si>
+    <t>Unfriendly, cold, unsecure hotel. Checked in fine. Elevators slow. No vending/ice on 2nd floor. Room clean and comfortable. TV channels good selection. Wifi good. Coffeemaker, Fridge, Microwave. Outdoor pool. I left 2 bottles of water and a bottle of shampoo in the room. I returned a couple of hours later to recover those items and the housekeepers had just finished my room 2 rooms before I got there. Those items were gone and no one knew what happened to them. The items were insignificant but as far as I'm concerned it was a good lesson for me as a traveler. There is a La Quinta just down the road that I will be staying at next time. Cie la Vie Best Western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r341146384-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>341146384</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Good Value for lovely room</t>
+  </si>
+  <si>
+    <t>We reserved this room as a stop on our drive from Canada to Mexico on Jan. 13, 2016.  Good value for lovely rooms.  Reception very welcoming and helpful both in evening and morning.  Rooms very clean and well appointed.  Very comfortable bed.  Good internet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r319990643-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>319990643</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>How did I end up writing a review?</t>
+  </si>
+  <si>
+    <t>It was a business trip.  No negatives other than the parking-woefully inadequate for a property this size. The rooms were clean, the staff was courteous, breakfast was acceptable, all amenities worked properly</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r314570344-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>314570344</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certainly overrated </t>
+  </si>
+  <si>
+    <t>I'm almost certain the desk clerk was smoking out front when I arrived. He certainly smelled like it. He had an army type jacket on which he took off when he entered to check me in. He was friendly but looked unkempt. Dirty fingernails. When I got to my room the strike plate on the door frame was missing causing the door not to shut properly. This left a see thru gap even with the door shut and locked. It gets really hot in east Texas and the a/c unit had been off all day when I checked in. The housekeeper did a good job. Everything was clean and provisioned. The refrigerator in the room made a loud noise when cutting on and off. I was so tired when I arrived I didn't have time to think of unplugging it, I just went to bed.  It was a Priceline rate so I'm not complaining about that. Just want to provide info. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I'm almost certain the desk clerk was smoking out front when I arrived. He certainly smelled like it. He had an army type jacket on which he took off when he entered to check me in. He was friendly but looked unkempt. Dirty fingernails. When I got to my room the strike plate on the door frame was missing causing the door not to shut properly. This left a see thru gap even with the door shut and locked. It gets really hot in east Texas and the a/c unit had been off all day when I checked in. The housekeeper did a good job. Everything was clean and provisioned. The refrigerator in the room made a loud noise when cutting on and off. I was so tired when I arrived I didn't have time to think of unplugging it, I just went to bed.  It was a Priceline rate so I'm not complaining about that. Just want to provide info. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r314240551-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>314240551</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Hotel was very clean upon arrival,check in was easy very friendly staff.Rooms were very clean and comfortable the only thing I had a problem with was you need socks or shoes in your room the carpets are dirty and will turn your feet black.!!  Small pool but nice.!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r311192244-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>311192244</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>A jewel in Cleveland, Tx</t>
+  </si>
+  <si>
+    <t>Well maintained hotel.   Exceptional caring staff.   Best buffet breakfast I've had at a hotel in a long time.  CLEAN&lt; CLEAN&lt; CLEAN!     Can receive internet service outside @ the pool, too!  MILITARY DISCOUNT!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r307125958-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>307125958</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Good value.</t>
+  </si>
+  <si>
+    <t>The bed was very comfortable. The  water pressure was good. The breakfast was good with very decent coffee. The hotel staff was knowledgeable and helpful. There are bellman luggage carriers available should one need them. The only thing I would add is a little sitting area outside.  Overall a good experience.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r305886622-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>305886622</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel...but I didn't get the room I reserved</t>
+  </si>
+  <si>
+    <t>The hotel is in good shape and had a decent selection for breakfast. My issue with the hotel is that when I made my reservation, I explained to the girl that we were having some home repairs done and had to be out of our house one or two nights. I was told that all the single king rooms were full, but they could give me a king suite for $96.04 that night. I told the clerk that since we were paying almost $7000 for our house repair and had just paid almost $1,000 on my brother's funeral last week, that every penny counted, so I would call around to see if I could find something that cost less, but she said she would see what she could do for me. She said she had two jacuzzi rooms, but one of the tubs was broken. She said that since I was under some stress, she would give me the jacuzzi room that was working, so I could relax and enjoy my stay. However, when my husband and I went to check in, the clerk on duty refused to give me the working jacuzzi unless I paid another $33.95 plus tax. I explained what I had been assured of, but to no avail. I must admit that I was quite frustrated with the whole situation, especially since we could have stayed at the La Quinta up the street for less money,...The hotel is in good shape and had a decent selection for breakfast. My issue with the hotel is that when I made my reservation, I explained to the girl that we were having some home repairs done and had to be out of our house one or two nights. I was told that all the single king rooms were full, but they could give me a king suite for $96.04 that night. I told the clerk that since we were paying almost $7000 for our house repair and had just paid almost $1,000 on my brother's funeral last week, that every penny counted, so I would call around to see if I could find something that cost less, but she said she would see what she could do for me. She said she had two jacuzzi rooms, but one of the tubs was broken. She said that since I was under some stress, she would give me the jacuzzi room that was working, so I could relax and enjoy my stay. However, when my husband and I went to check in, the clerk on duty refused to give me the working jacuzzi unless I paid another $33.95 plus tax. I explained what I had been assured of, but to no avail. I must admit that I was quite frustrated with the whole situation, especially since we could have stayed at the La Quinta up the street for less money, but I thought the jacuzzi room would be a treat after a very stressful couple of weeks. The jacuzzi suite we were in was on the first floor right by the hallway exit door, and there were people in and out the door and talking somewhat loudly between 12:30 AM and about 4:00 AM, so I wouldn't suggest you stay on the first floor. There was no shampoo in our room either, but I always bring my own anyway. All in all, the property is nice, but I wasn't impressed with their customer service. There was no one at the front desk when I left for work, so I wasn't able to talk with anyone about my issues at the time. And please note that I'm reviewing this under stressful circumstances, so I'm probably being a little more harsh and far less understanding than usual.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is in good shape and had a decent selection for breakfast. My issue with the hotel is that when I made my reservation, I explained to the girl that we were having some home repairs done and had to be out of our house one or two nights. I was told that all the single king rooms were full, but they could give me a king suite for $96.04 that night. I told the clerk that since we were paying almost $7000 for our house repair and had just paid almost $1,000 on my brother's funeral last week, that every penny counted, so I would call around to see if I could find something that cost less, but she said she would see what she could do for me. She said she had two jacuzzi rooms, but one of the tubs was broken. She said that since I was under some stress, she would give me the jacuzzi room that was working, so I could relax and enjoy my stay. However, when my husband and I went to check in, the clerk on duty refused to give me the working jacuzzi unless I paid another $33.95 plus tax. I explained what I had been assured of, but to no avail. I must admit that I was quite frustrated with the whole situation, especially since we could have stayed at the La Quinta up the street for less money,...The hotel is in good shape and had a decent selection for breakfast. My issue with the hotel is that when I made my reservation, I explained to the girl that we were having some home repairs done and had to be out of our house one or two nights. I was told that all the single king rooms were full, but they could give me a king suite for $96.04 that night. I told the clerk that since we were paying almost $7000 for our house repair and had just paid almost $1,000 on my brother's funeral last week, that every penny counted, so I would call around to see if I could find something that cost less, but she said she would see what she could do for me. She said she had two jacuzzi rooms, but one of the tubs was broken. She said that since I was under some stress, she would give me the jacuzzi room that was working, so I could relax and enjoy my stay. However, when my husband and I went to check in, the clerk on duty refused to give me the working jacuzzi unless I paid another $33.95 plus tax. I explained what I had been assured of, but to no avail. I must admit that I was quite frustrated with the whole situation, especially since we could have stayed at the La Quinta up the street for less money, but I thought the jacuzzi room would be a treat after a very stressful couple of weeks. The jacuzzi suite we were in was on the first floor right by the hallway exit door, and there were people in and out the door and talking somewhat loudly between 12:30 AM and about 4:00 AM, so I wouldn't suggest you stay on the first floor. There was no shampoo in our room either, but I always bring my own anyway. All in all, the property is nice, but I wasn't impressed with their customer service. There was no one at the front desk when I left for work, so I wasn't able to talk with anyone about my issues at the time. And please note that I'm reviewing this under stressful circumstances, so I'm probably being a little more harsh and far less understanding than usual.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r296460850-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>296460850</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>wonderful hotel choice for a short stay with the family.</t>
+  </si>
+  <si>
+    <t>Excellent service and room style. The room was more than big enough and the bathroom was amazing. It was always nice and cool in the hotel. The staff was more than helpful and breakfast was delicious. I will definitely be staying here again next time I need a hotel and I'm in town.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r294866341-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>294866341</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable stay</t>
+  </si>
+  <si>
+    <t>The breakfast was great.  Had the standard cereals and pastries, but also had bagels and cream cheese.  But the best for me, a diabetic, was the proteins that were there; egg, sausage, bacon, and peanut butter.  Fresh fruit was available, and they also had sugar free syrup.  Just absolutely great.  The room was spacious, the bathroom large, and the bed comfortable.  It was a little soft for me, but not for most people.  It was clean.  Very clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r289306219-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>289306219</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Excellent stay.</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay at this property.  The staff were helpful, the rooms were modern, and the location was very convenient.  As other reviewers have noted, it is a little bit tricky to find the place at first.  I recommend using Google Maps to view this property before driving there.  It's located across the street from Burger King on the West side of Route 59.  Also, if you walk around the residential area near the hotel, be sure to observe "no trespassing" signs.  I accidentally ventured slightly off the sidewalk and walked onto someone's lawn.  The property owner immediately approached me and he was carrying a large gun!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a very pleasant stay at this property.  The staff were helpful, the rooms were modern, and the location was very convenient.  As other reviewers have noted, it is a little bit tricky to find the place at first.  I recommend using Google Maps to view this property before driving there.  It's located across the street from Burger King on the West side of Route 59.  Also, if you walk around the residential area near the hotel, be sure to observe "no trespassing" signs.  I accidentally ventured slightly off the sidewalk and walked onto someone's lawn.  The property owner immediately approached me and he was carrying a large gun!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r287800038-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>287800038</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Manager needs demotion or termination!</t>
+  </si>
+  <si>
+    <t>Manager was rude and unfriendly! Would not like to deal with Mr Jonathon ever again. When I quietly told him about giant spider webs in the corners of the room he said lets look at it. He proceeds with me back to the room when I show him the problems he turns on his heels, puts his hands behind his back and yells over his shoulder it would be taken care of. Then seemed to have a problem with me the rest of the weekend. I usually don't complain and his actions are the reason why. My daughters room down the hall had a half eaten biscuit from Popeye's next door in the middle of the made up bed. Something is wrong with management and cleaning service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager was rude and unfriendly! Would not like to deal with Mr Jonathon ever again. When I quietly told him about giant spider webs in the corners of the room he said lets look at it. He proceeds with me back to the room when I show him the problems he turns on his heels, puts his hands behind his back and yells over his shoulder it would be taken care of. Then seemed to have a problem with me the rest of the weekend. I usually don't complain and his actions are the reason why. My daughters room down the hall had a half eaten biscuit from Popeye's next door in the middle of the made up bed. Something is wrong with management and cleaning service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r285335742-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>285335742</t>
+  </si>
+  <si>
+    <t>07/03/2015</t>
+  </si>
+  <si>
+    <t>Dirty! Noisy! Fraudulent, rude employees and owner!</t>
+  </si>
+  <si>
+    <t>When I had checked in, Joshua at the front desk had tried to cheat me by stating that the rate was a higher amount. When I told him that I had a confirmation that I had received by e-mail, that had listed the right amount, he went with what I showed him.
+I had stayed here for a few weeks. The 1st day that the housekeeping staff were in to clean the room, I happened to notice that after she had cleaned the toilet, she was using the same washcloth that she had used to clean to toilet, to clean the rest of the bathroom, including the bathtub and washbasin! I politely asked her to not do so, because I did not want germs from the toilet to be transferred to the tub and washbasin that I was going to use. She stopped, but she went and lied to the owner and other employees that I had "supervised" her work, and was informed by the owner, through the front desk staff that if I could check out if I wanted. I could not believe it! Even after I had explained the situation to the manager, in a polite way, and the manager agreed with me that she should not have been cleaning the room in such a manner, and knowing that I am a Registered Nurse, had even asked me, that if  I had continued to see her cleaning in...When I had checked in, Joshua at the front desk had tried to cheat me by stating that the rate was a higher amount. When I told him that I had a confirmation that I had received by e-mail, that had listed the right amount, he went with what I showed him.I had stayed here for a few weeks. The 1st day that the housekeeping staff were in to clean the room, I happened to notice that after she had cleaned the toilet, she was using the same washcloth that she had used to clean to toilet, to clean the rest of the bathroom, including the bathtub and washbasin! I politely asked her to not do so, because I did not want germs from the toilet to be transferred to the tub and washbasin that I was going to use. She stopped, but she went and lied to the owner and other employees that I had "supervised" her work, and was informed by the owner, through the front desk staff that if I could check out if I wanted. I could not believe it! Even after I had explained the situation to the manager, in a polite way, and the manager agreed with me that she should not have been cleaning the room in such a manner, and knowing that I am a Registered Nurse, had even asked me, that if  I had continued to see her cleaning in such a manner, to tell her to not clean in such a manner. After he spoke to the owner, the owner had told him to tell me that I could check out, rather than correct his housekeeping staff and watch out for the health and safety of the guests! The only reason I had continued to stay there is because I had already made the reservation. I had the "do not disturb" sign hanging outside the door and did not get her to clean that room after that. I had every right to watch out for my health and safety! In addition, she was not using gloves while cleaning, including the bathroom. She had loaded a roll of toilet paper that was already open! I bought and used my own toilet paper.The walls are thin and could hear conversations by people next door.If someone had the TV on loud, it could be heard in the hallway and from the next room, with the door closed, of the room that I was staying in.The hotel is right off the freeway. We could hear the vehicles. It had a lot of truckers staying there.When there was a small storm, the frogs from the swamp next door had jumped on to the walls and doors of the hotel. At night, we could hear them croaking all night.On the day that I had checked out, there was a problem and they shut down the water, without informing the guests who were already staying there!I was promised a lower weekly rate and had informed Michele at the front desk that I would be staying there from such and such date to such and such date, and was told that the weekly rate would apply for the entire stay except the last few days that did not add up to a week, and would be charged the rate that it was at that time, for those days. But when those days came up, I was told that I was going to be charged the current rate, which was much higher! At the last minute I had to look up rates and thankfully found a lower rate on this website, which was lower than what Michele at the front desk of the hotel had quoted. She had lied to me and had cheated me!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>When I had checked in, Joshua at the front desk had tried to cheat me by stating that the rate was a higher amount. When I told him that I had a confirmation that I had received by e-mail, that had listed the right amount, he went with what I showed him.
+I had stayed here for a few weeks. The 1st day that the housekeeping staff were in to clean the room, I happened to notice that after she had cleaned the toilet, she was using the same washcloth that she had used to clean to toilet, to clean the rest of the bathroom, including the bathtub and washbasin! I politely asked her to not do so, because I did not want germs from the toilet to be transferred to the tub and washbasin that I was going to use. She stopped, but she went and lied to the owner and other employees that I had "supervised" her work, and was informed by the owner, through the front desk staff that if I could check out if I wanted. I could not believe it! Even after I had explained the situation to the manager, in a polite way, and the manager agreed with me that she should not have been cleaning the room in such a manner, and knowing that I am a Registered Nurse, had even asked me, that if  I had continued to see her cleaning in...When I had checked in, Joshua at the front desk had tried to cheat me by stating that the rate was a higher amount. When I told him that I had a confirmation that I had received by e-mail, that had listed the right amount, he went with what I showed him.I had stayed here for a few weeks. The 1st day that the housekeeping staff were in to clean the room, I happened to notice that after she had cleaned the toilet, she was using the same washcloth that she had used to clean to toilet, to clean the rest of the bathroom, including the bathtub and washbasin! I politely asked her to not do so, because I did not want germs from the toilet to be transferred to the tub and washbasin that I was going to use. She stopped, but she went and lied to the owner and other employees that I had "supervised" her work, and was informed by the owner, through the front desk staff that if I could check out if I wanted. I could not believe it! Even after I had explained the situation to the manager, in a polite way, and the manager agreed with me that she should not have been cleaning the room in such a manner, and knowing that I am a Registered Nurse, had even asked me, that if  I had continued to see her cleaning in such a manner, to tell her to not clean in such a manner. After he spoke to the owner, the owner had told him to tell me that I could check out, rather than correct his housekeeping staff and watch out for the health and safety of the guests! The only reason I had continued to stay there is because I had already made the reservation. I had the "do not disturb" sign hanging outside the door and did not get her to clean that room after that. I had every right to watch out for my health and safety! In addition, she was not using gloves while cleaning, including the bathroom. She had loaded a roll of toilet paper that was already open! I bought and used my own toilet paper.The walls are thin and could hear conversations by people next door.If someone had the TV on loud, it could be heard in the hallway and from the next room, with the door closed, of the room that I was staying in.The hotel is right off the freeway. We could hear the vehicles. It had a lot of truckers staying there.When there was a small storm, the frogs from the swamp next door had jumped on to the walls and doors of the hotel. At night, we could hear them croaking all night.On the day that I had checked out, there was a problem and they shut down the water, without informing the guests who were already staying there!I was promised a lower weekly rate and had informed Michele at the front desk that I would be staying there from such and such date to such and such date, and was told that the weekly rate would apply for the entire stay except the last few days that did not add up to a week, and would be charged the rate that it was at that time, for those days. But when those days came up, I was told that I was going to be charged the current rate, which was much higher! At the last minute I had to look up rates and thankfully found a lower rate on this website, which was lower than what Michele at the front desk of the hotel had quoted. She had lied to me and had cheated me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r283279818-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>283279818</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>It looks a new hotel, but my GPS could not find it”</t>
+  </si>
+  <si>
+    <t>My one complaint was the lack of finding the hotel from GPS. I managed to find it by chance because you can see it from from the highway:) I chose a King Suite and it was very nice. If I had business traveler's I would recommend it for the cleanliness, location, kitchen amenities.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r269098592-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>269098592</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Clean and reasonable</t>
+  </si>
+  <si>
+    <t>We stayed here due to loss of power during recent storms. The motel staff was friendly. The room was very comfortable, and reasonably priced. The breakfast was also very fresh and plentiful. I would recommend it as a good stopping place outside of Houston.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r268443121-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>268443121</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Repeat customer</t>
+  </si>
+  <si>
+    <t>I continue to come back based on the service and cleanliness of this hotel.  The staff members are very helpful and friendly.  One of my favorite things about this hotel is the breakfast.  They have a great selection of items available but I love to make the Texas shape waffle.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r267814908-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>267814908</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>It was a good overnight getaway.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for our anniversary. We got the room with the jetted tub. All in all it was overpriced for what it was. The cable tv went out in  the hotel due to weather but that could have happened anywhere. I probably would plan better next time but this was a last minute impulse. The breakfast was not impressive. The coffee maker in our room didn't work. The girl at the desk was absolutely the best though she handled herself well with all the trouble.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r260256658-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>260256658</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Best Traveling Stop</t>
+  </si>
+  <si>
+    <t>Was staying in the Houston area, around the airport (IAH) and was looking comfort and value. Boy, did we hit a home run!! Excellent room, Extremely comfortable bed, Great breakfast! What else do you stay at a hotel for????</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r259049726-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>259049726</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Get out!</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable room. Pleasant breakfast. Asked to sleep an extra hour and check out 1 hour late and was told to leave at noon even though there was not another vehicle in the parking lot. Not very understanding or nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r257220078-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>257220078</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Very good value</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel three times.  It is always clean and the people are very nice and accommodating.  Cleveland is not a big town so I suppose that's why the price is low; it's a very good value. The location is excellent, right off Highway 59, and there are fast food places and restaurants close by.  Lots of Mexican food.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r253296938-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>253296938</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>EXCELLENCE STARTS IN CLEVELAND TEXAS</t>
+  </si>
+  <si>
+    <t>This hotel is the best I have ever stayed in. Clean, modern, accomidating, excellent staff, hot food,clean pool and yard. easy highway access to shopping and food. Excellent handicapped room. Great example to other hotels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r250031748-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>250031748</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Late Night Quick Stop Nice Job</t>
+  </si>
+  <si>
+    <t>Recently traveling in Texas and heading North from IAH. 2am and needed a quick stop 4 hour place to stay. Stopped at this motel and was greeted with a warm smile and a sincere interest to help from the woman at the counter. She offered to have the continental breakfast available a little earlier than normal to help an early departure. The room was fine, beds comfortable. Nice job with a weary traveler late at night.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r241265018-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>241265018</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>passing through</t>
+  </si>
+  <si>
+    <t>The room was excellent. Nice, clean and quiet. I felt very safe. The parking lot was very well lit. Jonathan at the front desk was very helpful resolving a reservation problem. He went above and beyond to help me resolve an error that I had made. It was very much appfeciated after a long day's drive. Would highly recommend this for anybody.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r228932523-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>228932523</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>A good place to stay!</t>
+  </si>
+  <si>
+    <t>Hospitality, quality and cleanliness seemed to be their goals and they reached all of them.  We were very pleased with all services and staff.  The food was very good. I would like for them to have a comfortable place, outside or in a designated area, to sit and enjoy a good cigar though.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r227409404-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>227409404</t>
+  </si>
+  <si>
+    <t>09/06/2014</t>
+  </si>
+  <si>
+    <t>Best Western, Cleveland, Tx.</t>
+  </si>
+  <si>
+    <t>Good location, friendly staff, a shower head with a strong spray, great hot water for a HOT shower and VERY comfortable beds. Ended up in a suite at no extra charge and the extra space was very nice. The breakfast was a typical BW breakfast but my firend and I went to grab breakfast at the very end of serving time and there was still a lot to choose from. My brother said this is BW is only a couple years old or so. This was the best BW I've stayed at. A close second is the one in Port Aransas, Texas and it has been in Port A for awhile.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good location, friendly staff, a shower head with a strong spray, great hot water for a HOT shower and VERY comfortable beds. Ended up in a suite at no extra charge and the extra space was very nice. The breakfast was a typical BW breakfast but my firend and I went to grab breakfast at the very end of serving time and there was still a lot to choose from. My brother said this is BW is only a couple years old or so. This was the best BW I've stayed at. A close second is the one in Port Aransas, Texas and it has been in Port A for awhile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r224737214-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>224737214</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Good price good bed</t>
+  </si>
+  <si>
+    <t>Extremely comfortable rooms very clean and each had microwave and refrigerator that I really use to keep expenses   down when I travel and I never expected to sleep so well, rooms were so quiet our room backed on to a green belt no traffic noise at all!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r218105786-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>218105786</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Big room!  Great stay!</t>
+  </si>
+  <si>
+    <t>Was in the area for several days and found this property to be a great value.  Right off highway w/ Walmart and several places to eat very closeby.  Was greeted enthusiastically by Melissa at my late night check in (usually after hrs front desk people are grouchy and annoyed)!  Room was very big with a mostly full kitchen.  All staff were very friendly and property seemed clean and well maintained.  Breakfast was also not bad and offered some variety.  Only complaints - OLD tv and poor cable reception; tiniest pool Ive ever seen.  Would have felt awkward being in there w/ any other person!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r218145282-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>218145282</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Jonathan was very nice on the phone. Upon check in my room wasnt ready but melissa took good care of me ,she was very sweet! Now on the other hand the older lady that works nights , she was very rude and seem like she didnt want to be there! If She would of checked me in instead of melissa ,more than  likely i wouldnt have stayed ! Overall the hotel was nice and clean! I recommend others to stay !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r216004688-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>216004688</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL</t>
+  </si>
+  <si>
+    <t>Hotel was nice and clean staff was great. Breakfast time frame was a little narrow to partake. But overall a great place. I will recommend other to stay when near and also will be returning next year for similiar stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r205288998-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>205288998</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Excellent Choice All the Way Around!!!</t>
+  </si>
+  <si>
+    <t>Magon is an Awesome Assistant General Manager and Melissa (Magon's right hand) is an Awesome Front Office Manager. These two women are the reason most people choose to stay at this Hotel. #1 The beds are the most comfortable and the rooms are very spacious. #2 Customer Service from these two women go way above and beyond. #3 Variety of the Breakfast Bar. This is my favorite hotel by far; whenever I come to Cleveland, Texas I ONLY stay at the Best Western !!!!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r201020842-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>201020842</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>Rude staff, wifi unstable, shower curtain wouldn't stay closed &amp; had to mop up, fridge on last leg, motel needs updating, dirtiest chair I've ever seen in room, sheets were clean. Booked this hotel because of good ratings. Don't be fooled!</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r199941752-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>199941752</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Great value for a last minute stay.</t>
+  </si>
+  <si>
+    <t>This was a last minute trip with a short notice. On our short stay the staff was incredibly nice, room was very clean, and comfortable.  The only issue I had was I woke up with hip pain, but sleep well.  We will be staying here again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r196604914-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>196604914</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>I booked a room online and was coming to Cleveland for the first time. I wasnt sure what the area was like or where a good place to stay was. Upon our check in the staff was super friendly. She told me she had already got our air &amp; lights on in our room for us. The room was very clean and plenty big! Bed was big &amp; comfy! My only negative would be the loud opening &amp; closing of other rooms doors. That was abit overwhelming for a few mins but by 10pm it was nice and quiet. Overall I would for sure stay there again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r195869577-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>195869577</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel twice, once for a baseball tournament and this past weekend for a cheer competition. Both times we've had awesome service, nice clean rooms and a great breakfast! Melissa is great at keeping the food and beverages stocked. Friendly staff at the front desk. The only issue we had was the HBO did not work in the room. Highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r195286510-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>195286510</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Good location for the price</t>
+  </si>
+  <si>
+    <t>The Best Western hotel in Cleveland, TX is a good hotel for the price. The accommodations were fairly typical (mini-fridge, microwave, television, etc.) and it looked like most standard hotels. The cable T.V. was a bit fuzzy but my biggest problem was with the pillows. Their pillows are more like soft rocks - my wife and I both woke up with headaches - so bring your own pillows. The staff were very helpful and friendly and the hotel was very clean. Breakfast was a stereotypical hotel "continental" breakfast and the fitness center was a glorified closet with three pieces of exercise equipment.  Overall, this location was not a terrible experience but not my favorite either.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Best Western hotel in Cleveland, TX is a good hotel for the price. The accommodations were fairly typical (mini-fridge, microwave, television, etc.) and it looked like most standard hotels. The cable T.V. was a bit fuzzy but my biggest problem was with the pillows. Their pillows are more like soft rocks - my wife and I both woke up with headaches - so bring your own pillows. The staff were very helpful and friendly and the hotel was very clean. Breakfast was a stereotypical hotel "continental" breakfast and the fitness center was a glorified closet with three pieces of exercise equipment.  Overall, this location was not a terrible experience but not my favorite either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r194585104-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>194585104</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Best Service Ever</t>
+  </si>
+  <si>
+    <t>I made a mistake while reserving a non-refundable room through Expedia, so I called the front desk of the hotel fully expecting that they'd tell me to contact Expedia directly. Nope! The woman at the desk was one of the kindest people I've ever talked to in the hospitality industry. She fixed my reservation in just 20 minutes and made my day 100 times better. The staff is wonderful and deserve a round of applause.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r194478156-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>194478156</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>best western cleveland</t>
+  </si>
+  <si>
+    <t>Room smelled - was not fresh.  This hotel is  in a good location.  We have stayed here ever since it was built.  The employees are very friendly and helpful.  Owner needs to put some money back into the property.  Old TVs and very slow internet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r193619872-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>193619872</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>The Other Cleveland....TEXAS</t>
+  </si>
+  <si>
+    <t>Best staff I've encountered in a hotel.  Melissa is the go-to lady, cheerful, helpful and going the extra mile. The room was clean and nicely furnished, the breakfast was good and the fruit were fresh.  The location is a bit difficult to find but directions from Marilyn will get you there every time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r192536233-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>192536233</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>The room was comfortable and the staff was very helpful!  There were no problems with check in or check out.  The breakfast room was nice, too.  The location is great (right off Hwy 59) with many eating establishments close by.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r189294345-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>189294345</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Very clean hotel.  Excellent service.  Great continental breakfast.  Room was spacious and very clean.  They had a fridge and microwave in the room.  The a/c unit in the room worked  great. Location was great.  I have stayed here before and the service is still the same, it's great! I would recommend this hotel to anyone staying in Cleveland.  There is a store/gas station next door.  There is also a Popeye's Chicken  place next door.  Right off interstate/highway  59. Awesome!</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r189052835-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>189052835</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Nice Place!</t>
+  </si>
+  <si>
+    <t>I recently took a trip to Cleveland to visit family for the Christmas holidays.  We booked a room at the Best Western and were very happy.  The room was very clean and roomy.  The beds were very comfortable.  The staff at the hotel was very friendly and informative.  The continental breakfast was good and the dining room was clean.  The hotel is right off of the freeway and easy to access.  I ended up leaving my phone charger in the room and the staff called me and offered to mail it to me.  I will definitely be staying here when I come back to Cleveland.  I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently took a trip to Cleveland to visit family for the Christmas holidays.  We booked a room at the Best Western and were very happy.  The room was very clean and roomy.  The beds were very comfortable.  The staff at the hotel was very friendly and informative.  The continental breakfast was good and the dining room was clean.  The hotel is right off of the freeway and easy to access.  I ended up leaving my phone charger in the room and the staff called me and offered to mail it to me.  I will definitely be staying here when I come back to Cleveland.  I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r186688650-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>186688650</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Great Customer Service ...</t>
+  </si>
+  <si>
+    <t>I was so amazed by the Customer Service from the Staff at Best Western Cleveland Inn &amp; Suites! The Beds were so cozy &amp; comfortable that I fell asleep literally minutes after laying my head down! The Complimentary Hot Breakfast that had a little something for everyone! The Staff makes you feel like you are Family and I really appreciate it that!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r185921113-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>185921113</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Great service, great value</t>
+  </si>
+  <si>
+    <t>This hotel is located along US59 and TX150. It is well staffed and managed. The hotel is clean and in new condition. All amenities were in good working order and also it has free internet. The breakfast consists of cereals, breads, muffins, Danish's, Waffles, eggs, sausages, juice and coffee or tea. The breakfast bar is well staffed and stocked. We have stayed here 4 times in the last year and will stay there in the future and I can recommend it.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r185374174-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>185374174</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay at this hotel. The room exceded my expectaions. The bathroom was very spacious and clean. The king room included a comfortable chair and ottoman that was perfect for reading. The staff was outstand ing in every way. We also enjoyed the wide range of breakfast items that were offered. This Best Western was an A+.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r179881843-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>179881843</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Best Western in Cleveland, Tx</t>
+  </si>
+  <si>
+    <t>We were in town for a family reunion. And several of my family members also stayed there and We loved it...  EVERYONE was courteous and very helpful from the time we arrived to the time we left. We stayed two days and nights.  Will defiantly stay there again.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r179777488-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>179777488</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>A Breath of Fresh Air</t>
+  </si>
+  <si>
+    <t>When traveling in E Texas on Rt 59, it was a pleasure to stay at the Best Western in Cleveland, TX.  In addition to being a very comfortable and clean hotel, it has a very friendly staff.  I've returned here many times when traveling through the area due to the comfortable conditions and great attitude of the staff.  They make you feel like they are welcoming you home after a long trip.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r178662021-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>178662021</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Pleased with stay</t>
+  </si>
+  <si>
+    <t>Death in the family required hotel stay as attending funeral services to difficult for elderly mother otherwise.   Best Western met our needs for an over the night stay with comfort, safety, and cleanliness. Will stay there again if need arises.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r171266508-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>171266508</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Jason Krupp</t>
+  </si>
+  <si>
+    <t>Honestly, this place is like a home to me, feels like it at times, you get great customer service, ALWAYS with a smile, intriguing conversations from some of the Front Desk staff, you won't want to leave this place -it's kind of like a Hotel California.. one of the guests I spoke to had been staying there for -get this- 504 days...- the staff are so perceptive and on top of their game, heck even the Housekeepers keep that place so clean it's amazing -no, seriously, If I came in from the Popeyes across the parking lot, with a chicken platter, and it fell out of my hands, I'd pick the pieces right off the floor and put them back on my plate without a second thought-, I'm a big guy and I like to EAT, my only complaint would be the fitness center, there's no 'upper body workout weights', only treadmill and cycle...Oh and the breakfast is not too bad either, it's continental, but that's no big deal I usually just head over to the Whataburger across the highway for my eggs/bacon breakfast binge -it's 24hrs anyways, as well as the Supercenter Wal-Mart that's located across the highway..- Good LocationGood ServiceGood, Clean bedFree Wi-fi  \m/Ok sized PoolLaundry on the 2nd floorBreakfast in the morning, checkouts at 12 -which I love, since I'm so lazy hahaha-MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Honestly, this place is like a home to me, feels like it at times, you get great customer service, ALWAYS with a smile, intriguing conversations from some of the Front Desk staff, you won't want to leave this place -it's kind of like a Hotel California.. one of the guests I spoke to had been staying there for -get this- 504 days...- the staff are so perceptive and on top of their game, heck even the Housekeepers keep that place so clean it's amazing -no, seriously, If I came in from the Popeyes across the parking lot, with a chicken platter, and it fell out of my hands, I'd pick the pieces right off the floor and put them back on my plate without a second thought-, I'm a big guy and I like to EAT, my only complaint would be the fitness center, there's no 'upper body workout weights', only treadmill and cycle...Oh and the breakfast is not too bad either, it's continental, but that's no big deal I usually just head over to the Whataburger across the highway for my eggs/bacon breakfast binge -it's 24hrs anyways, as well as the Supercenter Wal-Mart that's located across the highway..- Good LocationGood ServiceGood, Clean bedFree Wi-fi  \m/Ok sized PoolLaundry on the 2nd floorBreakfast in the morning, checkouts at 12 -which I love, since I'm so lazy hahaha-More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r169654520-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>169654520</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>A GREAT place to stay!</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and has a great staff.  They are always accommodating and friendly.  The rooms are well appointed with comfortable beds and amenities.  My employer always has our visitors stay here.  It's quite convenient to local restaurants and shopping, as well as the main freeway.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r169109446-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>169109446</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>close to Houston</t>
+  </si>
+  <si>
+    <t>Staff were very good and check-in was really great- breakfast left a little to be desired, but figured that was just continental-will stay again if in the vicinity- rooms were great- refrigerator and micro worked well and coffee and the ice machine made me a happy camper</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r161929082-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>161929082</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Nice people, friendly service</t>
+  </si>
+  <si>
+    <t>The staff was helpful, rooms were clean, beds were comfy. All you can ask for in Cleveland. Easy to get on highway, conveniently located to everything. I stay here frequently on business &amp; have always been pleased. The only drawback is that it is bit pricey for what it is.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r159033368-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>159033368</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>My daughter had a softball tournament to play in Splendora, Texas this past weekend, and we didn't want to wake up too early and drive there from our home. So, we decided to spend the night a little closer in Cleveland, Texas. It was a great experience for the short amount of time we needed. The room was very nice. We stayed in a room with two queen sized beds, because we had the kids with us. Bed was very comfy and the overall room was nice. Breakfast the next morning was your small continental breakfast, but the overall selection was good. The whole experience at the Best Western was a great one. If we ever end up in the Cleveland area, we will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>My daughter had a softball tournament to play in Splendora, Texas this past weekend, and we didn't want to wake up too early and drive there from our home. So, we decided to spend the night a little closer in Cleveland, Texas. It was a great experience for the short amount of time we needed. The room was very nice. We stayed in a room with two queen sized beds, because we had the kids with us. Bed was very comfy and the overall room was nice. Breakfast the next morning was your small continental breakfast, but the overall selection was good. The whole experience at the Best Western was a great one. If we ever end up in the Cleveland area, we will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r155965898-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>155965898</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Very nice facility and just off the highway, no noise</t>
+  </si>
+  <si>
+    <t>I like to stop at a place that is just far enough off the highway so it is not noisy.  My room was a king bed, sitting area, desk  fridg, microwave, tv and just as nice as home.  great view from my window of a field and trees.  Had a waffle for breakfast and the selection of food is good.  I am not a morning eater but took advantage of the waffle for a change.  Coffee is all I need in the morning.If you like there is a work out center and a small outside poomy only complaint is when I got here to check in, the lady at the desk was talking to another employee over issues and I find that distasteful.  Customers should not have to listen to that.They should wait on the customer and then in private talk about issues.  Was given a choice of floors which no one has ever offered me that.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I like to stop at a place that is just far enough off the highway so it is not noisy.  My room was a king bed, sitting area, desk  fridg, microwave, tv and just as nice as home.  great view from my window of a field and trees.  Had a waffle for breakfast and the selection of food is good.  I am not a morning eater but took advantage of the waffle for a change.  Coffee is all I need in the morning.If you like there is a work out center and a small outside poomy only complaint is when I got here to check in, the lady at the desk was talking to another employee over issues and I find that distasteful.  Customers should not have to listen to that.They should wait on the customer and then in private talk about issues.  Was given a choice of floors which no one has ever offered me that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r152003133-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>152003133</t>
+  </si>
+  <si>
+    <t>02/12/2013</t>
+  </si>
+  <si>
+    <t>Don't look elsewhere</t>
+  </si>
+  <si>
+    <t>A great hotel with good facilities. Great breakfast and eating area. Super clean throughout. Only problem I encountered was with the wifi in the room. Signal very low and speed was terrible. There is a business center you can use and it is much better. Wifi is also better in the lobby.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r150056810-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>150056810</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>A Nice Hotel for the Price</t>
+  </si>
+  <si>
+    <t>This was my first stay at this Best Western.  Desk staff was friendly and helpful and room comfortable and clean.  The only drawback is it still had an old style T.V. and the picture was wavy.  I was surprised as the hotel seems fairly new.  Also, the continental breakfast was very limited.  It still was a good value.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r148542064-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>148542064</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r144810641-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>144810641</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Best Value Best Western</t>
+  </si>
+  <si>
+    <t>Upon arriving the hotel was nice and the staff (Melissa) was a pleasure to deal with.  The rate on the room was great for a King Suite that included a microwave and refridgerator.  The internet did not work at first, but one call to Melissa and after realizing the Wi-Fi was down, she brought a data cable to my room and I was on.  Not long after that Melissa called my room and the Wi-Fi was now working.  Just a great rate and great room and a staff that cares about your stay.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r139316673-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>139316673</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Breakfast with Waffles Shaped like Texas!</t>
+  </si>
+  <si>
+    <t>Thank you Best Western for the Awesome Breakfast we experienced with Waffles that were Shaped like Texas! What a Special &amp; Unique touch, the kids talked about it the whole way home! Wanted to know if we could have a Waffle Machine like that one ... lol Good Times, that's why we'll be coming back.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r136425171-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>136425171</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Trip to Lake Livingston</t>
+  </si>
+  <si>
+    <t>We were visiting Lake Livingston, Tx. We stayed at the Best Western Cleveland. The hotel was clean and the staff was very nice. Melissa checked us and and she gave us great service. The one thing missing from this hotel is a hot tub. The swimming pool could be a bit larger as well.It was nice that you get a free news paper everyday. The free breakfast was nice too. The hotel furnished free wi-fi as well. The parking lot was small as well.  They need to have a area for motorcycles to park.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r134324380-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>134324380</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Best place to stay in Cleveland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've had the opportunity to stay here twice and both visits were great.  Very nice staff, clean and modern facilities, and probably the best mattress I've slept on in my travels.  All this at a very competitive rate too.  I will definitely be back! </t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r133613695-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>133613695</t>
+  </si>
+  <si>
+    <t>07/06/2012</t>
+  </si>
+  <si>
+    <t>Stayed in town for a Wedding</t>
+  </si>
+  <si>
+    <t>We made reservations with Melissa a day prior to arriving. We were set to arrive on July 4th 2012 (a fairly busy holiday for hotels). We had a wedding to attend that day and needed to arrive earlier so we would have enough time to shower, do our hair, and change clothes for the wedding. They let me know that when we arrive, all we have to do is call in when we're a few miles away and they'd make sure to have our room ready for us. Not only this, but because we were coming in for a wedding, the kind manager lowered our daily rate for us. 
+We did as directed, and called about 30 minutes prior to our arrival, speaking with Magon at that time. We couldn't seem to find the hotel on the GPS as it was directing us to an RV sales business instead of where the hotel actually was. So Magon happily directed us via phone to the hotel, where we arrived without problems. They had our room ready at check in, and we'd arrived 4 hours prior to check in time! Even better is that she let us know that she put us on the top floor away from all the noise we'd have encountered with the rowdy baseball team of young boys who were staying at the hotel as well. We did have one teensy bump as when we'd already gotten into...We made reservations with Melissa a day prior to arriving. We were set to arrive on July 4th 2012 (a fairly busy holiday for hotels). We had a wedding to attend that day and needed to arrive earlier so we would have enough time to shower, do our hair, and change clothes for the wedding. They let me know that when we arrive, all we have to do is call in when we're a few miles away and they'd make sure to have our room ready for us. Not only this, but because we were coming in for a wedding, the kind manager lowered our daily rate for us. We did as directed, and called about 30 minutes prior to our arrival, speaking with Magon at that time. We couldn't seem to find the hotel on the GPS as it was directing us to an RV sales business instead of where the hotel actually was. So Magon happily directed us via phone to the hotel, where we arrived without problems. They had our room ready at check in, and we'd arrived 4 hours prior to check in time! Even better is that she let us know that she put us on the top floor away from all the noise we'd have encountered with the rowdy baseball team of young boys who were staying at the hotel as well. We did have one teensy bump as when we'd already gotten into our room, the clerk called us and let us know that room keeping had noted the shower curtain was broken and falling down. We hadn't had the chance to notice that yet, but sure enough, it was broken and falling down. So they immediately moved us to a new room. That room was clean, and the a/c was already running and very cool. This is great as most hotels you walk into have hot rooms which are breath taking when you are trying to escape the summer temps outside. We settled in quickly, took our showers, got rested up, and had absolutely no problems at all. We attended the wedding, come back, later that night and retired to our room without any issies. We did go down to the desk to retreive more bath towels, as we'd gone through the four that we had (there was four of us), and needed more. The wedding was outdoors, in the middle of July. So we were in need of showers. The ONLY complaints I'd even have: There needs to be extra blankets in the closet, waiting for guests. The blanket that is on the bed is very very thin. If you like to sleep in a cool room, but tend to enjoy a thicker blanket to cuddle under, they do not have this at all. We had just a sheet and the thin comforter on both beds. So we got extra blankets and they were thicker and more comfortable. The other was the back to the TV controller was broken. I imagine previous guests fidgeted with the back and snapped the clip off of it so that it didn't stay on anymore. It was a very minor thing though. We just made sure we were careful not to lose it. Lastly was breakfast. The orange juice was not actually orange juice but a mixture of orange and grapefruit, which I only noticed upon drinking it. It upset my tummy, but I recovered.The air conditioning in our room worked beautifully. It kept it so cold in there that I actually had to turn it down to warm up. It was quiet, as the only thing I hear during my entire stay was one maid that ran a vacuum around 11:40am (20 minutes prior to our check out time). There was plenty of hot water, the blow dryers were by Hamilton Beach 1500 and worked beautifully, as I'd forgotten to pack mine. They dried our hair faster than the one I have! The built in nightlights in the bathroom were extra handy, as we often have a family member wake in the middle of the night, and we try not to wake others when we have to go potty. The air conditioner controls were simple and easy to work. I checked the filters on the unit and they were very clean and tended to. The TV was preset to a quiet volume, which we appreciate as we have (several times in the past) gone to turn on the TV and the previous guest left it at a loud volume. The alarm clock was already plugged in and set to the correct time. The refridgerator in the room worked excellently. We had dinner out that night at The Hot Biscuit and took our dinner to go after we got full. The fridge kept them nice and cold, and even got our dr. peppers that we put in there for our trip back home, really chilly with ice crystals in them! The lamps were easy to operate. No looking around for the on off switch like usual. The wireless internet connection was flawless. However, they did fail to provide us with a username and password. So we had to call to retrieve it. The beds felt like sleeping on a cloud! Very soft and comfortable. The curtains did a fantastic job blocking out the hot sun, and kept the room dark when we wanted it to be, and easily opened up when we wanted to have daylight. Breakfast was ready and waiting downstairs near the lobby for us to prepare as we wished. We had a choice of oatmeals, hot chocolate, coffee, juices, teas, cereals, milk, muffins, kolaches, bagels, toast, jellies, cream cheese, butter, fruit, and self-made waffles in the shape of Texas. We ate until full and checked out without a problem. I give this hotel 4 our of 5 stars. I'd give it five, but they need to make sure the juices are properly labeled for allergy reasons, and look into those blankets on their beds. Those won't be enough for anyone who catches a chill easily. Also, provide a password and username upon check in for those who use the wireless internet.All in all? It was a very plesant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We made reservations with Melissa a day prior to arriving. We were set to arrive on July 4th 2012 (a fairly busy holiday for hotels). We had a wedding to attend that day and needed to arrive earlier so we would have enough time to shower, do our hair, and change clothes for the wedding. They let me know that when we arrive, all we have to do is call in when we're a few miles away and they'd make sure to have our room ready for us. Not only this, but because we were coming in for a wedding, the kind manager lowered our daily rate for us. 
+We did as directed, and called about 30 minutes prior to our arrival, speaking with Magon at that time. We couldn't seem to find the hotel on the GPS as it was directing us to an RV sales business instead of where the hotel actually was. So Magon happily directed us via phone to the hotel, where we arrived without problems. They had our room ready at check in, and we'd arrived 4 hours prior to check in time! Even better is that she let us know that she put us on the top floor away from all the noise we'd have encountered with the rowdy baseball team of young boys who were staying at the hotel as well. We did have one teensy bump as when we'd already gotten into...We made reservations with Melissa a day prior to arriving. We were set to arrive on July 4th 2012 (a fairly busy holiday for hotels). We had a wedding to attend that day and needed to arrive earlier so we would have enough time to shower, do our hair, and change clothes for the wedding. They let me know that when we arrive, all we have to do is call in when we're a few miles away and they'd make sure to have our room ready for us. Not only this, but because we were coming in for a wedding, the kind manager lowered our daily rate for us. We did as directed, and called about 30 minutes prior to our arrival, speaking with Magon at that time. We couldn't seem to find the hotel on the GPS as it was directing us to an RV sales business instead of where the hotel actually was. So Magon happily directed us via phone to the hotel, where we arrived without problems. They had our room ready at check in, and we'd arrived 4 hours prior to check in time! Even better is that she let us know that she put us on the top floor away from all the noise we'd have encountered with the rowdy baseball team of young boys who were staying at the hotel as well. We did have one teensy bump as when we'd already gotten into our room, the clerk called us and let us know that room keeping had noted the shower curtain was broken and falling down. We hadn't had the chance to notice that yet, but sure enough, it was broken and falling down. So they immediately moved us to a new room. That room was clean, and the a/c was already running and very cool. This is great as most hotels you walk into have hot rooms which are breath taking when you are trying to escape the summer temps outside. We settled in quickly, took our showers, got rested up, and had absolutely no problems at all. We attended the wedding, come back, later that night and retired to our room without any issies. We did go down to the desk to retreive more bath towels, as we'd gone through the four that we had (there was four of us), and needed more. The wedding was outdoors, in the middle of July. So we were in need of showers. The ONLY complaints I'd even have: There needs to be extra blankets in the closet, waiting for guests. The blanket that is on the bed is very very thin. If you like to sleep in a cool room, but tend to enjoy a thicker blanket to cuddle under, they do not have this at all. We had just a sheet and the thin comforter on both beds. So we got extra blankets and they were thicker and more comfortable. The other was the back to the TV controller was broken. I imagine previous guests fidgeted with the back and snapped the clip off of it so that it didn't stay on anymore. It was a very minor thing though. We just made sure we were careful not to lose it. Lastly was breakfast. The orange juice was not actually orange juice but a mixture of orange and grapefruit, which I only noticed upon drinking it. It upset my tummy, but I recovered.The air conditioning in our room worked beautifully. It kept it so cold in there that I actually had to turn it down to warm up. It was quiet, as the only thing I hear during my entire stay was one maid that ran a vacuum around 11:40am (20 minutes prior to our check out time). There was plenty of hot water, the blow dryers were by Hamilton Beach 1500 and worked beautifully, as I'd forgotten to pack mine. They dried our hair faster than the one I have! The built in nightlights in the bathroom were extra handy, as we often have a family member wake in the middle of the night, and we try not to wake others when we have to go potty. The air conditioner controls were simple and easy to work. I checked the filters on the unit and they were very clean and tended to. The TV was preset to a quiet volume, which we appreciate as we have (several times in the past) gone to turn on the TV and the previous guest left it at a loud volume. The alarm clock was already plugged in and set to the correct time. The refridgerator in the room worked excellently. We had dinner out that night at The Hot Biscuit and took our dinner to go after we got full. The fridge kept them nice and cold, and even got our dr. peppers that we put in there for our trip back home, really chilly with ice crystals in them! The lamps were easy to operate. No looking around for the on off switch like usual. The wireless internet connection was flawless. However, they did fail to provide us with a username and password. So we had to call to retrieve it. The beds felt like sleeping on a cloud! Very soft and comfortable. The curtains did a fantastic job blocking out the hot sun, and kept the room dark when we wanted it to be, and easily opened up when we wanted to have daylight. Breakfast was ready and waiting downstairs near the lobby for us to prepare as we wished. We had a choice of oatmeals, hot chocolate, coffee, juices, teas, cereals, milk, muffins, kolaches, bagels, toast, jellies, cream cheese, butter, fruit, and self-made waffles in the shape of Texas. We ate until full and checked out without a problem. I give this hotel 4 our of 5 stars. I'd give it five, but they need to make sure the juices are properly labeled for allergy reasons, and look into those blankets on their beds. Those won't be enough for anyone who catches a chill easily. Also, provide a password and username upon check in for those who use the wireless internet.All in all? It was a very plesant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r129058797-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>129058797</t>
+  </si>
+  <si>
+    <t>04/29/2012</t>
+  </si>
+  <si>
+    <t>Patrick R</t>
+  </si>
+  <si>
+    <t>We only live about an hour away from this hotel but my daughter's softball tournament, down the road in Splendora, started so early in the morning we decided to spend the night close to the ballpark. The hotel was nice, quiet, clean and I couldn't have asked for a better price. I would like to thank the staff (Jonathan, Melissa, Magon, Irene and Janelle) for a great stay. We will play in many more softball tournaments in Splendora and my family, as well as the rest of our team, will be staying at The Best Western in Cleveland, Texas. I have also passed along this information to other teams in our area that travel to play softball. Thanks again .......see y'all soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We only live about an hour away from this hotel but my daughter's softball tournament, down the road in Splendora, started so early in the morning we decided to spend the night close to the ballpark. The hotel was nice, quiet, clean and I couldn't have asked for a better price. I would like to thank the staff (Jonathan, Melissa, Magon, Irene and Janelle) for a great stay. We will play in many more softball tournaments in Splendora and my family, as well as the rest of our team, will be staying at The Best Western in Cleveland, Texas. I have also passed along this information to other teams in our area that travel to play softball. Thanks again .......see y'all soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r126903764-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>126903764</t>
+  </si>
+  <si>
+    <t>03/29/2012</t>
+  </si>
+  <si>
+    <t>good place to stay</t>
+  </si>
+  <si>
+    <t>Good value, clean rooms, friendly staff. We would stay again.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r119997671-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>119997671</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Nice, clean, well maintained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right off US 59, well maintained hotel with very friendly staff. No backups or really slow spots on US 59 all the way to 610 during morning rush...can't say that about too many roads in Houston.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r116534839-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>116534839</t>
+  </si>
+  <si>
+    <t>08/10/2011</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>This was a fantastic place. The staff was wonderful - extra friendly and helpful. The rooms were clean and very neat. The beds and pillows were perfect. It was quiet at night even though the motel was just off Hwy 59. We will be coming back - great price, great experience</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r98223405-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>98223405</t>
+  </si>
+  <si>
+    <t>02/27/2011</t>
+  </si>
+  <si>
+    <t>Very clean has all you can think of!</t>
+  </si>
+  <si>
+    <t>Night light built into bathrrom switch, blowdryer that works! Shampoo, lotion and conditioner.Ironing board, iron IN ROOM!Clean, breakfast was great, make own fresh waffles.  Not a dinky breakfast like some, cheep for all accomadations. Icebox, coffee maker and microwave in ROOM. Great stay, thanks</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r96859227-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>96859227</t>
+  </si>
+  <si>
+    <t>02/16/2011</t>
+  </si>
+  <si>
+    <t>Best Western was wonderful!</t>
+  </si>
+  <si>
+    <t>After our crew had a horrible experience at the American Inn, we decided to take our business to the Best Western where we were greeted with smiling faces and a complimentary breakfast. The staff was wonderful and the front desk manager (Magon) was extremely helpful. They apologized that we had had a bad experience at the American Inn and assured us that they were more than happy to help us in any way they could. I would highly recommend this place to anyone and know that our crew will be staying here again. THANK YOU BEST WESTERN!</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r92574274-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>92574274</t>
+  </si>
+  <si>
+    <t>01/11/2011</t>
+  </si>
+  <si>
+    <t>superior customer service, very clean rooms</t>
+  </si>
+  <si>
+    <t>I stayed at the Best Western in Cleveland, TX this last week, while visiting some family during the holidays; duration of stay was 4 days. I was impressed with the hotel property and staff.Staff was attentive, and very friendly. They ensured our stay was enjoyable.  The rooms were always cleaned thoroughlyI; i would recommend staying at this hotel if you have plans to visit Cleveland, TX</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r14144280-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>14144280</t>
+  </si>
+  <si>
+    <t>03/08/2008</t>
+  </si>
+  <si>
+    <t>Caution - Count Your Pillows</t>
+  </si>
+  <si>
+    <t>Due to bad weather, we stayed one night at the Best Western Inn in Cleveland, TX.
+A few days later, I received my credit card statement showing an additional $20.00 charge.  I called the hotel and talked to a girl I think was named Megan.  I was told that the charge was for a missing pillow.  I told her that there must be some mistake.  We are used to sleeping on our own feather pillows and take them with us when we travel.  We would have not taken the pillow from the hotel.  She basically cut me off and said I would have to talk to the manager Travis who was off that day.  When I hung up the phone, I double checked all of my pillows to make sure that the hotel pillow did not accidentally get mixed up with mine.  I only had feather pillows - no polyester hotel pillow.  I called the next day and talked to the manger Travis.  He did not seem very interested in what I was trying to say to him. I tried to explain that we did not have the pillow and that there must have been a mistake.  I ask him if the room numbers could have got mixed up.  He said maybe that he would have to check with his assistant Megan since she was in charge of billing people for missing items.  He said he would check and call...Due to bad weather, we stayed one night at the Best Western Inn in Cleveland, TX.A few days later, I received my credit card statement showing an additional $20.00 charge.  I called the hotel and talked to a girl I think was named Megan.  I was told that the charge was for a missing pillow.  I told her that there must be some mistake.  We are used to sleeping on our own feather pillows and take them with us when we travel.  We would have not taken the pillow from the hotel.  She basically cut me off and said I would have to talk to the manager Travis who was off that day.  When I hung up the phone, I double checked all of my pillows to make sure that the hotel pillow did not accidentally get mixed up with mine.  I only had feather pillows - no polyester hotel pillow.  I called the next day and talked to the manger Travis.  He did not seem very interested in what I was trying to say to him. I tried to explain that we did not have the pillow and that there must have been a mistake.  I ask him if the room numbers could have got mixed up.  He said maybe that he would have to check with his assistant Megan since she was in charge of billing people for missing items.  He said he would check and call me back.  It has been almost 2 weeks and he has still not called me back.  I feel it is very unprofessional to brush off a customer and not return a call.If the pillow would have accidentally got mixed up with my stuff, I would have no problem paying the $20.00 even though you could go to Walmart and get 2 or 3 for that price.  I am not sure what happened to the pillow, or if even it was one that really belonged to my room. But who are you going to call?  Nobody at the hotel seems to care. Just be sure to count your pillows when you leave if you stay at this hotel so you do not get overcharged like I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>Due to bad weather, we stayed one night at the Best Western Inn in Cleveland, TX.
+A few days later, I received my credit card statement showing an additional $20.00 charge.  I called the hotel and talked to a girl I think was named Megan.  I was told that the charge was for a missing pillow.  I told her that there must be some mistake.  We are used to sleeping on our own feather pillows and take them with us when we travel.  We would have not taken the pillow from the hotel.  She basically cut me off and said I would have to talk to the manager Travis who was off that day.  When I hung up the phone, I double checked all of my pillows to make sure that the hotel pillow did not accidentally get mixed up with mine.  I only had feather pillows - no polyester hotel pillow.  I called the next day and talked to the manger Travis.  He did not seem very interested in what I was trying to say to him. I tried to explain that we did not have the pillow and that there must have been a mistake.  I ask him if the room numbers could have got mixed up.  He said maybe that he would have to check with his assistant Megan since she was in charge of billing people for missing items.  He said he would check and call...Due to bad weather, we stayed one night at the Best Western Inn in Cleveland, TX.A few days later, I received my credit card statement showing an additional $20.00 charge.  I called the hotel and talked to a girl I think was named Megan.  I was told that the charge was for a missing pillow.  I told her that there must be some mistake.  We are used to sleeping on our own feather pillows and take them with us when we travel.  We would have not taken the pillow from the hotel.  She basically cut me off and said I would have to talk to the manager Travis who was off that day.  When I hung up the phone, I double checked all of my pillows to make sure that the hotel pillow did not accidentally get mixed up with mine.  I only had feather pillows - no polyester hotel pillow.  I called the next day and talked to the manger Travis.  He did not seem very interested in what I was trying to say to him. I tried to explain that we did not have the pillow and that there must have been a mistake.  I ask him if the room numbers could have got mixed up.  He said maybe that he would have to check with his assistant Megan since she was in charge of billing people for missing items.  He said he would check and call me back.  It has been almost 2 weeks and he has still not called me back.  I feel it is very unprofessional to brush off a customer and not return a call.If the pillow would have accidentally got mixed up with my stuff, I would have no problem paying the $20.00 even though you could go to Walmart and get 2 or 3 for that price.  I am not sure what happened to the pillow, or if even it was one that really belonged to my room. But who are you going to call?  Nobody at the hotel seems to care. Just be sure to count your pillows when you leave if you stay at this hotel so you do not get overcharged like I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r7685705-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>7685705</t>
+  </si>
+  <si>
+    <t>05/23/2007</t>
+  </si>
+  <si>
+    <t>REVISED version of FRUGAL OWNERS</t>
+  </si>
+  <si>
+    <t>I was commenting on the frugality of the owners in my previous post however the general manager of the property contacted me and made some clarifications. The fact that the property cares enough to read online reviews and give their feedback shows that they really care. There were some misunderstandings in the awkwardness of the hotel clerk smiling our way along with a few other things. thinking back the overall experience was not bad as i did say before how the hotel itself is very neat and clean with very nice decor that is pleasant to the eyes. All in all there isn't much more that is needed if you're just there for a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was commenting on the frugality of the owners in my previous post however the general manager of the property contacted me and made some clarifications. The fact that the property cares enough to read online reviews and give their feedback shows that they really care. There were some misunderstandings in the awkwardness of the hotel clerk smiling our way along with a few other things. thinking back the overall experience was not bad as i did say before how the hotel itself is very neat and clean with very nice decor that is pleasant to the eyes. All in all there isn't much more that is needed if you're just there for a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55639-d651187-r7616493-Best_Western_Cleveland_Inn_Suites-Cleveland_Texas.html</t>
+  </si>
+  <si>
+    <t>7616493</t>
+  </si>
+  <si>
+    <t>05/13/2007</t>
+  </si>
+  <si>
+    <t>Frugal owners</t>
+  </si>
+  <si>
+    <t>I stayed here with my significant other when we made a trip to houston. We just contacted the property directly b/c we didnt want to stay in houston but rather somewhere along the outskirts of the city. The hotel had just opened up and there were six, yup thats right, SIX donuts at the breakfast bar. Not only that but the guy working at the counter kept staring at us and smiling. it made us feel uncomforable not to mention appauled by the breakfast that was being served. I'm not a big eater and nor do i normally care however htis really caught me off guard. the room itself was nice and clean as was the ambiance.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>I stayed here with my significant other when we made a trip to houston. We just contacted the property directly b/c we didnt want to stay in houston but rather somewhere along the outskirts of the city. The hotel had just opened up and there were six, yup thats right, SIX donuts at the breakfast bar. Not only that but the guy working at the counter kept staring at us and smiling. it made us feel uncomforable not to mention appauled by the breakfast that was being served. I'm not a big eater and nor do i normally care however htis really caught me off guard. the room itself was nice and clean as was the ambiance.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2245,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2277,6281 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>136</v>
+      </c>
+      <c r="X15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>203</v>
+      </c>
+      <c r="O26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>85</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>203</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" t="s">
+        <v>85</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" t="s">
+        <v>247</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" t="s">
+        <v>251</v>
+      </c>
+      <c r="K35" t="s">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s">
+        <v>253</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" t="s">
+        <v>258</v>
+      </c>
+      <c r="L36" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" t="s">
+        <v>264</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>254</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>267</v>
+      </c>
+      <c r="J38" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" t="s">
+        <v>270</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>254</v>
+      </c>
+      <c r="O38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>280</v>
+      </c>
+      <c r="J40" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" t="s">
+        <v>283</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>284</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>290</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>290</v>
+      </c>
+      <c r="O42" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>290</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>302</v>
+      </c>
+      <c r="J44" t="s">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>277</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>306</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>307</v>
+      </c>
+      <c r="J45" t="s">
+        <v>308</v>
+      </c>
+      <c r="K45" t="s">
+        <v>309</v>
+      </c>
+      <c r="L45" t="s">
+        <v>310</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>277</v>
+      </c>
+      <c r="O45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s">
+        <v>315</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>316</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>317</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>318</v>
+      </c>
+      <c r="J47" t="s">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s">
+        <v>320</v>
+      </c>
+      <c r="L47" t="s">
+        <v>321</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>316</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>323</v>
+      </c>
+      <c r="J48" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" t="s">
+        <v>326</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>327</v>
+      </c>
+      <c r="O48" t="s">
+        <v>85</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" t="s">
+        <v>330</v>
+      </c>
+      <c r="K49" t="s">
+        <v>331</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>333</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>334</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>335</v>
+      </c>
+      <c r="J50" t="s">
+        <v>336</v>
+      </c>
+      <c r="K50" t="s">
+        <v>337</v>
+      </c>
+      <c r="L50" t="s">
+        <v>338</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>339</v>
+      </c>
+      <c r="O50" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J51" t="s">
+        <v>342</v>
+      </c>
+      <c r="K51" t="s">
+        <v>343</v>
+      </c>
+      <c r="L51" t="s">
+        <v>344</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>339</v>
+      </c>
+      <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>346</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>347</v>
+      </c>
+      <c r="J52" t="s">
+        <v>348</v>
+      </c>
+      <c r="K52" t="s">
+        <v>349</v>
+      </c>
+      <c r="L52" t="s">
+        <v>350</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>351</v>
+      </c>
+      <c r="O52" t="s">
+        <v>92</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" t="s">
+        <v>354</v>
+      </c>
+      <c r="K53" t="s">
+        <v>355</v>
+      </c>
+      <c r="L53" t="s">
+        <v>356</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>357</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>358</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>359</v>
+      </c>
+      <c r="J54" t="s">
+        <v>354</v>
+      </c>
+      <c r="K54" t="s">
+        <v>360</v>
+      </c>
+      <c r="L54" t="s">
+        <v>361</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>357</v>
+      </c>
+      <c r="O54" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>363</v>
+      </c>
+      <c r="J55" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" t="s">
+        <v>365</v>
+      </c>
+      <c r="L55" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>357</v>
+      </c>
+      <c r="O55" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>367</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>368</v>
+      </c>
+      <c r="J56" t="s">
+        <v>369</v>
+      </c>
+      <c r="K56" t="s">
+        <v>370</v>
+      </c>
+      <c r="L56" t="s">
+        <v>371</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>372</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>373</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>374</v>
+      </c>
+      <c r="J57" t="s">
+        <v>375</v>
+      </c>
+      <c r="K57" t="s">
+        <v>376</v>
+      </c>
+      <c r="L57" t="s">
+        <v>377</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>378</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>379</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>380</v>
+      </c>
+      <c r="J58" t="s">
+        <v>381</v>
+      </c>
+      <c r="K58" t="s">
+        <v>382</v>
+      </c>
+      <c r="L58" t="s">
+        <v>383</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>384</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>386</v>
+      </c>
+      <c r="J59" t="s">
+        <v>387</v>
+      </c>
+      <c r="K59" t="s">
+        <v>388</v>
+      </c>
+      <c r="L59" t="s">
+        <v>389</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>384</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" t="s">
+        <v>392</v>
+      </c>
+      <c r="K60" t="s">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s">
+        <v>394</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>395</v>
+      </c>
+      <c r="O60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>397</v>
+      </c>
+      <c r="J61" t="s">
+        <v>398</v>
+      </c>
+      <c r="K61" t="s">
+        <v>399</v>
+      </c>
+      <c r="L61" t="s">
+        <v>400</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>395</v>
+      </c>
+      <c r="O61" t="s">
+        <v>92</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>402</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>403</v>
+      </c>
+      <c r="J62" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" t="s">
+        <v>405</v>
+      </c>
+      <c r="L62" t="s">
+        <v>406</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>395</v>
+      </c>
+      <c r="O62" t="s">
+        <v>85</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>407</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>408</v>
+      </c>
+      <c r="J63" t="s">
+        <v>409</v>
+      </c>
+      <c r="K63" t="s">
+        <v>410</v>
+      </c>
+      <c r="L63" t="s">
+        <v>411</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>395</v>
+      </c>
+      <c r="O63" t="s">
+        <v>92</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>413</v>
+      </c>
+      <c r="J64" t="s">
+        <v>414</v>
+      </c>
+      <c r="K64" t="s">
+        <v>415</v>
+      </c>
+      <c r="L64" t="s">
+        <v>416</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>395</v>
+      </c>
+      <c r="O64" t="s">
+        <v>85</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>417</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>418</v>
+      </c>
+      <c r="J65" t="s">
+        <v>419</v>
+      </c>
+      <c r="K65" t="s">
+        <v>420</v>
+      </c>
+      <c r="L65" t="s">
+        <v>421</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>422</v>
+      </c>
+      <c r="O65" t="s">
+        <v>85</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>423</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>424</v>
+      </c>
+      <c r="J66" t="s">
+        <v>425</v>
+      </c>
+      <c r="K66" t="s">
+        <v>182</v>
+      </c>
+      <c r="L66" t="s">
+        <v>426</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>427</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>428</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>429</v>
+      </c>
+      <c r="J67" t="s">
+        <v>430</v>
+      </c>
+      <c r="K67" t="s">
+        <v>431</v>
+      </c>
+      <c r="L67" t="s">
+        <v>432</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>427</v>
+      </c>
+      <c r="O67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>434</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>435</v>
+      </c>
+      <c r="J68" t="s">
+        <v>436</v>
+      </c>
+      <c r="K68" t="s">
+        <v>437</v>
+      </c>
+      <c r="L68" t="s">
+        <v>438</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>427</v>
+      </c>
+      <c r="O68" t="s">
+        <v>92</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>439</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>440</v>
+      </c>
+      <c r="J69" t="s">
+        <v>441</v>
+      </c>
+      <c r="K69" t="s">
+        <v>442</v>
+      </c>
+      <c r="L69" t="s">
+        <v>443</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>444</v>
+      </c>
+      <c r="O69" t="s">
+        <v>92</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>445</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>446</v>
+      </c>
+      <c r="J70" t="s">
+        <v>447</v>
+      </c>
+      <c r="K70" t="s">
+        <v>448</v>
+      </c>
+      <c r="L70" t="s">
+        <v>449</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>444</v>
+      </c>
+      <c r="O70" t="s">
+        <v>85</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>450</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>451</v>
+      </c>
+      <c r="J71" t="s">
+        <v>452</v>
+      </c>
+      <c r="K71" t="s">
+        <v>453</v>
+      </c>
+      <c r="L71" t="s">
+        <v>454</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>455</v>
+      </c>
+      <c r="O71" t="s">
+        <v>92</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>456</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>457</v>
+      </c>
+      <c r="J72" t="s">
+        <v>458</v>
+      </c>
+      <c r="K72" t="s">
+        <v>459</v>
+      </c>
+      <c r="L72" t="s">
+        <v>460</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>461</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>462</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>463</v>
+      </c>
+      <c r="J73" t="s">
+        <v>464</v>
+      </c>
+      <c r="K73" t="s">
+        <v>465</v>
+      </c>
+      <c r="L73" t="s">
+        <v>466</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>455</v>
+      </c>
+      <c r="O73" t="s">
+        <v>85</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>467</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>468</v>
+      </c>
+      <c r="J74" t="s">
+        <v>469</v>
+      </c>
+      <c r="K74" t="s">
+        <v>470</v>
+      </c>
+      <c r="L74" t="s">
+        <v>471</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>472</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>474</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>475</v>
+      </c>
+      <c r="J75" t="s">
+        <v>476</v>
+      </c>
+      <c r="K75" t="s">
+        <v>477</v>
+      </c>
+      <c r="L75" t="s">
+        <v>478</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>479</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>480</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>481</v>
+      </c>
+      <c r="J76" t="s">
+        <v>482</v>
+      </c>
+      <c r="K76" t="s">
+        <v>483</v>
+      </c>
+      <c r="L76" t="s">
+        <v>484</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>472</v>
+      </c>
+      <c r="O76" t="s">
+        <v>85</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>485</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>486</v>
+      </c>
+      <c r="J77" t="s">
+        <v>487</v>
+      </c>
+      <c r="K77" t="s">
+        <v>488</v>
+      </c>
+      <c r="L77" t="s">
+        <v>489</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>490</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>491</v>
+      </c>
+      <c r="J78" t="s">
+        <v>492</v>
+      </c>
+      <c r="K78" t="s">
+        <v>182</v>
+      </c>
+      <c r="L78" t="s">
+        <v>493</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>494</v>
+      </c>
+      <c r="O78" t="s">
+        <v>92</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>496</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>497</v>
+      </c>
+      <c r="J79" t="s">
+        <v>498</v>
+      </c>
+      <c r="K79" t="s">
+        <v>499</v>
+      </c>
+      <c r="L79" t="s">
+        <v>500</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>501</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>503</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>504</v>
+      </c>
+      <c r="J80" t="s">
+        <v>505</v>
+      </c>
+      <c r="K80" t="s">
+        <v>506</v>
+      </c>
+      <c r="L80" t="s">
+        <v>507</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>508</v>
+      </c>
+      <c r="O80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>509</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>510</v>
+      </c>
+      <c r="J81" t="s">
+        <v>511</v>
+      </c>
+      <c r="K81" t="s">
+        <v>512</v>
+      </c>
+      <c r="L81" t="s">
+        <v>513</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>514</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>515</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>516</v>
+      </c>
+      <c r="J82" t="s">
+        <v>517</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>518</v>
+      </c>
+      <c r="O82" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>519</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>520</v>
+      </c>
+      <c r="J83" t="s">
+        <v>521</v>
+      </c>
+      <c r="K83" t="s">
+        <v>522</v>
+      </c>
+      <c r="L83" t="s">
+        <v>523</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>524</v>
+      </c>
+      <c r="O83" t="s">
+        <v>85</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>525</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>526</v>
+      </c>
+      <c r="J84" t="s">
+        <v>527</v>
+      </c>
+      <c r="K84" t="s">
+        <v>528</v>
+      </c>
+      <c r="L84" t="s">
+        <v>529</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>530</v>
+      </c>
+      <c r="O84" t="s">
+        <v>92</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>531</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>532</v>
+      </c>
+      <c r="J85" t="s">
+        <v>533</v>
+      </c>
+      <c r="K85" t="s">
+        <v>534</v>
+      </c>
+      <c r="L85" t="s">
+        <v>535</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>536</v>
+      </c>
+      <c r="O85" t="s">
+        <v>66</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>537</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>538</v>
+      </c>
+      <c r="J86" t="s">
+        <v>539</v>
+      </c>
+      <c r="K86" t="s">
+        <v>540</v>
+      </c>
+      <c r="L86" t="s">
+        <v>541</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>542</v>
+      </c>
+      <c r="O86" t="s">
+        <v>85</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>543</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>544</v>
+      </c>
+      <c r="J87" t="s">
+        <v>545</v>
+      </c>
+      <c r="K87" t="s">
+        <v>546</v>
+      </c>
+      <c r="L87" t="s">
+        <v>547</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>542</v>
+      </c>
+      <c r="O87" t="s">
+        <v>92</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>549</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>550</v>
+      </c>
+      <c r="J88" t="s">
+        <v>551</v>
+      </c>
+      <c r="K88" t="s">
+        <v>552</v>
+      </c>
+      <c r="L88" t="s">
+        <v>553</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>554</v>
+      </c>
+      <c r="O88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>556</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>557</v>
+      </c>
+      <c r="J89" t="s">
+        <v>558</v>
+      </c>
+      <c r="K89" t="s">
+        <v>559</v>
+      </c>
+      <c r="L89" t="s">
+        <v>560</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>561</v>
+      </c>
+      <c r="O89" t="s">
+        <v>66</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>562</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>563</v>
+      </c>
+      <c r="J90" t="s">
+        <v>564</v>
+      </c>
+      <c r="K90" t="s">
+        <v>565</v>
+      </c>
+      <c r="L90" t="s">
+        <v>566</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>567</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>568</v>
+      </c>
+      <c r="J91" t="s">
+        <v>569</v>
+      </c>
+      <c r="K91" t="s">
+        <v>570</v>
+      </c>
+      <c r="L91" t="s">
+        <v>571</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>572</v>
+      </c>
+      <c r="O91" t="s">
+        <v>92</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>573</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>574</v>
+      </c>
+      <c r="J92" t="s">
+        <v>575</v>
+      </c>
+      <c r="K92" t="s">
+        <v>576</v>
+      </c>
+      <c r="L92" t="s">
+        <v>577</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>578</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>579</v>
+      </c>
+      <c r="J93" t="s">
+        <v>580</v>
+      </c>
+      <c r="K93" t="s">
+        <v>581</v>
+      </c>
+      <c r="L93" t="s">
+        <v>582</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>583</v>
+      </c>
+      <c r="O93" t="s">
+        <v>85</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>584</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>585</v>
+      </c>
+      <c r="J94" t="s">
+        <v>586</v>
+      </c>
+      <c r="K94" t="s">
+        <v>587</v>
+      </c>
+      <c r="L94" t="s">
+        <v>588</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>589</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>590</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>591</v>
+      </c>
+      <c r="J95" t="s">
+        <v>592</v>
+      </c>
+      <c r="K95" t="s">
+        <v>593</v>
+      </c>
+      <c r="L95" t="s">
+        <v>594</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>595</v>
+      </c>
+      <c r="O95" t="s">
+        <v>92</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>597</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>598</v>
+      </c>
+      <c r="J96" t="s">
+        <v>599</v>
+      </c>
+      <c r="K96" t="s">
+        <v>600</v>
+      </c>
+      <c r="L96" t="s">
+        <v>601</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>55376</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>603</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>604</v>
+      </c>
+      <c r="J97" t="s">
+        <v>605</v>
+      </c>
+      <c r="K97" t="s">
+        <v>606</v>
+      </c>
+      <c r="L97" t="s">
+        <v>607</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>608</v>
+      </c>
+      <c r="O97" t="s">
+        <v>66</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
